--- a/BOM of SpaceKat Mini Accessories.xlsx
+++ b/BOM of SpaceKat Mini Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeng_\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31A476-A12A-4E48-AF2F-311F25DD6244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA3D13-0E66-4DC7-83DB-1D702F70447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="130" windowWidth="21900" windowHeight="15620" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
+    <workbookView xWindow="640" yWindow="130" windowWidth="22540" windowHeight="14350" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>主控</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?_u=jcd2leb925&amp;id=722805289250&amp;skuId=5199422995278</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P 1.25端子线 8-10CM 母头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包邮的价格，请商家做好1.25接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=16&amp;id=576790821801&amp;sku_properties=1627207%3A31428902323</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,6 +519,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -515,9 +530,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -834,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C185C5A3-565B-4043-A9AC-7A4F6F64EB60}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -845,7 +857,7 @@
     <col min="2" max="2" width="30.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="23.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="84.08203125" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
@@ -924,7 +936,7 @@
       <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4"/>
@@ -940,7 +952,7 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
@@ -1009,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>37</v>
@@ -1144,10 +1156,10 @@
       <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1162,16 +1174,26 @@
       <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -1182,153 +1204,151 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="D25" s="5">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5">
         <v>0.05</v>
       </c>
       <c r="D26" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C27" s="5">
         <v>0.05</v>
       </c>
       <c r="D27" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D28" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D29" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D30" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" s="5">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D31" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1336,35 +1356,35 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="5">
-        <v>3</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="A34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1372,27 +1392,19 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>41</v>
@@ -1400,18 +1412,36 @@
       <c r="D38" s="5">
         <v>1</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="F38" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1419,23 +1449,24 @@
     <hyperlink ref="F8" r:id="rId2" xr:uid="{52F87F3F-E785-44EB-8058-8D6D66EC1101}"/>
     <hyperlink ref="F9" r:id="rId3" xr:uid="{6A122FCA-1989-4520-BEA8-27180D5CB44A}"/>
     <hyperlink ref="F18" r:id="rId4" xr:uid="{D90B551E-81EE-44D8-ACFC-BD1CEEB889A8}"/>
-    <hyperlink ref="F25" r:id="rId5" xr:uid="{7E81BC59-DD61-4FC8-AA0B-CB7FF30F34C9}"/>
+    <hyperlink ref="F26" r:id="rId5" xr:uid="{7E81BC59-DD61-4FC8-AA0B-CB7FF30F34C9}"/>
     <hyperlink ref="F19" r:id="rId6" xr:uid="{5F384D5E-1A7A-403E-AFE9-D5900E6D87AD}"/>
     <hyperlink ref="F20" r:id="rId7" xr:uid="{D758B095-6720-4A81-B8A8-86A22B5F53A9}"/>
     <hyperlink ref="F10" r:id="rId8" xr:uid="{136A5D5D-D10E-4012-AC84-976948BF1964}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{9E280E03-B684-4ACF-853D-99156BFCCB55}"/>
-    <hyperlink ref="F38" r:id="rId10" xr:uid="{CBBFB708-1522-4FE2-BF90-1B0487AFA748}"/>
-    <hyperlink ref="F37" r:id="rId11" xr:uid="{5197D038-340B-4930-9934-4EA1A7844EBB}"/>
+    <hyperlink ref="F39" r:id="rId10" xr:uid="{CBBFB708-1522-4FE2-BF90-1B0487AFA748}"/>
+    <hyperlink ref="F38" r:id="rId11" xr:uid="{5197D038-340B-4930-9934-4EA1A7844EBB}"/>
     <hyperlink ref="F12" r:id="rId12" xr:uid="{80E0E1EE-50C0-4AFE-81D7-5B0B63D8AC2D}"/>
-    <hyperlink ref="F26" r:id="rId13" xr:uid="{C0A63030-4571-4DC0-ACA3-BB5A65A5F194}"/>
+    <hyperlink ref="F27" r:id="rId13" xr:uid="{C0A63030-4571-4DC0-ACA3-BB5A65A5F194}"/>
     <hyperlink ref="F14" r:id="rId14" xr:uid="{59B98ADF-7698-4F35-B439-4BA132362FE7}"/>
     <hyperlink ref="F15" r:id="rId15" xr:uid="{3246782D-B9E2-40F2-90E4-1D4F0BE21EF7}"/>
-    <hyperlink ref="F27" r:id="rId16" xr:uid="{CFD4206B-35F3-41E8-B480-0079DCE3931A}"/>
-    <hyperlink ref="F28" r:id="rId17" xr:uid="{F02912DF-B62A-42C0-9A92-FA877B6BFEB4}"/>
-    <hyperlink ref="F29" r:id="rId18" xr:uid="{7D6713AA-5DB2-4CE8-A650-0F17A0E7DB2B}"/>
-    <hyperlink ref="F30" r:id="rId19" xr:uid="{730B5C75-39B1-4095-910A-AE97327B4F1F}"/>
-    <hyperlink ref="F31" r:id="rId20" xr:uid="{0A9B3ABE-0EA8-425F-8A27-7E63DC0CF37F}"/>
-    <hyperlink ref="F34" r:id="rId21" xr:uid="{B7A30856-0575-4A02-A579-F57DC463FB0B}"/>
+    <hyperlink ref="F28" r:id="rId16" xr:uid="{CFD4206B-35F3-41E8-B480-0079DCE3931A}"/>
+    <hyperlink ref="F29" r:id="rId17" xr:uid="{F02912DF-B62A-42C0-9A92-FA877B6BFEB4}"/>
+    <hyperlink ref="F30" r:id="rId18" xr:uid="{7D6713AA-5DB2-4CE8-A650-0F17A0E7DB2B}"/>
+    <hyperlink ref="F31" r:id="rId19" xr:uid="{730B5C75-39B1-4095-910A-AE97327B4F1F}"/>
+    <hyperlink ref="F32" r:id="rId20" xr:uid="{0A9B3ABE-0EA8-425F-8A27-7E63DC0CF37F}"/>
+    <hyperlink ref="F35" r:id="rId21" xr:uid="{B7A30856-0575-4A02-A579-F57DC463FB0B}"/>
+    <hyperlink ref="F22" r:id="rId22" xr:uid="{5BBD81D2-4211-4D31-A9F5-6705C091BBA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM of SpaceKat Mini Accessories.xlsx
+++ b/BOM of SpaceKat Mini Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeng_\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA3D13-0E66-4DC7-83DB-1D702F70447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D387F7-ADA4-44E4-934F-EFBF010E9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="130" windowWidth="22540" windowHeight="14350" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
+    <workbookView xWindow="2110" yWindow="970" windowWidth="22540" windowHeight="14350" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>主控</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,18 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=16&amp;id=576790821801&amp;sku_properties=1627207%3A31428902323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧 0.6*8*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4块钱10个，包邮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?_u=rcd2lebc08&amp;id=550601588733&amp;skuId=4978069351554</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C185C5A3-565B-4043-A9AC-7A4F6F64EB60}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1349,16 +1361,24 @@
     </row>
     <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1366,35 +1386,35 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="5">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="A35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1402,27 +1422,19 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>41</v>
@@ -1430,18 +1442,36 @@
       <c r="D39" s="5">
         <v>1</v>
       </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="F39" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1454,8 +1484,8 @@
     <hyperlink ref="F20" r:id="rId7" xr:uid="{D758B095-6720-4A81-B8A8-86A22B5F53A9}"/>
     <hyperlink ref="F10" r:id="rId8" xr:uid="{136A5D5D-D10E-4012-AC84-976948BF1964}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{9E280E03-B684-4ACF-853D-99156BFCCB55}"/>
-    <hyperlink ref="F39" r:id="rId10" xr:uid="{CBBFB708-1522-4FE2-BF90-1B0487AFA748}"/>
-    <hyperlink ref="F38" r:id="rId11" xr:uid="{5197D038-340B-4930-9934-4EA1A7844EBB}"/>
+    <hyperlink ref="F40" r:id="rId10" xr:uid="{CBBFB708-1522-4FE2-BF90-1B0487AFA748}"/>
+    <hyperlink ref="F39" r:id="rId11" xr:uid="{5197D038-340B-4930-9934-4EA1A7844EBB}"/>
     <hyperlink ref="F12" r:id="rId12" xr:uid="{80E0E1EE-50C0-4AFE-81D7-5B0B63D8AC2D}"/>
     <hyperlink ref="F27" r:id="rId13" xr:uid="{C0A63030-4571-4DC0-ACA3-BB5A65A5F194}"/>
     <hyperlink ref="F14" r:id="rId14" xr:uid="{59B98ADF-7698-4F35-B439-4BA132362FE7}"/>
@@ -1465,8 +1495,9 @@
     <hyperlink ref="F30" r:id="rId18" xr:uid="{7D6713AA-5DB2-4CE8-A650-0F17A0E7DB2B}"/>
     <hyperlink ref="F31" r:id="rId19" xr:uid="{730B5C75-39B1-4095-910A-AE97327B4F1F}"/>
     <hyperlink ref="F32" r:id="rId20" xr:uid="{0A9B3ABE-0EA8-425F-8A27-7E63DC0CF37F}"/>
-    <hyperlink ref="F35" r:id="rId21" xr:uid="{B7A30856-0575-4A02-A579-F57DC463FB0B}"/>
+    <hyperlink ref="F36" r:id="rId21" xr:uid="{B7A30856-0575-4A02-A579-F57DC463FB0B}"/>
     <hyperlink ref="F22" r:id="rId22" xr:uid="{5BBD81D2-4211-4D31-A9F5-6705C091BBA3}"/>
+    <hyperlink ref="F33" r:id="rId23" xr:uid="{9CCDAFAA-0182-4358-8B51-BE4B3E14D784}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM of SpaceKat Mini Accessories.xlsx
+++ b/BOM of SpaceKat Mini Accessories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeng_\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D387F7-ADA4-44E4-934F-EFBF010E9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB528540-B911-445E-B219-38DDE499BB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2110" yWindow="970" windowWidth="22540" windowHeight="14350" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
+    <workbookView xWindow="1770" yWindow="630" windowWidth="22540" windowHeight="14350" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>主控</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,14 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?_u=acd2le4ab8&amp;id=797021354370&amp;skuId=5604361751651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费1块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滚花螺母 M2*3*3.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +353,10 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?_u=rcd2lebc08&amp;id=550601588733&amp;skuId=4978069351554</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?_u=ucd2ledbd3&amp;id=747240798984&amp;skuId=5154555245756</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C185C5A3-565B-4043-A9AC-7A4F6F64EB60}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1033,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>37</v>
@@ -1051,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
@@ -1067,10 +1063,10 @@
     </row>
     <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5">
         <v>0.3</v>
@@ -1079,16 +1075,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5">
         <v>0.15</v>
@@ -1097,10 +1093,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
@@ -1192,7 +1188,7 @@
     <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="5">
         <v>0.3</v>
@@ -1204,7 +1200,7 @@
         <v>28</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
@@ -1254,7 +1250,7 @@
     <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5">
         <v>0.05</v>
@@ -1263,16 +1259,16 @@
         <v>6</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5">
         <v>0.05</v>
@@ -1281,16 +1277,16 @@
         <v>9</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5">
         <v>0.02</v>
@@ -1299,16 +1295,16 @@
         <v>8</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="5">
         <v>0.03</v>
@@ -1317,16 +1313,16 @@
         <v>5</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="5">
         <v>0.02</v>
@@ -1335,16 +1331,16 @@
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="5">
         <v>0.03</v>
@@ -1353,16 +1349,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="5">
         <v>0.4</v>
@@ -1371,10 +1367,10 @@
         <v>3</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
@@ -1387,7 +1383,7 @@
     </row>
     <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -1398,7 +1394,7 @@
     <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="5">
         <v>3</v>
@@ -1407,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">

--- a/BOM of SpaceKat Mini Accessories.xlsx
+++ b/BOM of SpaceKat Mini Accessories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeng_\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB528540-B911-445E-B219-38DDE499BB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A705FD-15BA-4EAF-AB67-327EFC411CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="630" windowWidth="22540" windowHeight="14350" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,18 +144,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6P 1.25连接器 直插</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2-3块钱10个，包邮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?_u=acd2le8a95&amp;id=678926000000&amp;skuId=4870815285606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2-3块钱5+5，10个包邮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +349,13 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?_u=ucd2ledbd3&amp;id=747240798984&amp;skuId=5154555245756</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?_u=acd2le8a95&amp;id=678926000000&amp;skuId=4870815285616</t>
+  </si>
+  <si>
+    <t>6P 1.25连接器 弯针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +856,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1002,7 +1001,7 @@
     <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
@@ -1014,13 +1013,13 @@
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>13</v>
@@ -1029,16 +1028,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5">
         <v>0.3</v>
@@ -1047,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
@@ -1063,10 +1062,10 @@
     </row>
     <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5">
         <v>0.3</v>
@@ -1075,16 +1074,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="5">
         <v>0.15</v>
@@ -1093,10 +1092,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
@@ -1138,7 +1137,7 @@
     <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C19" s="5">
         <v>0.3</v>
@@ -1147,16 +1146,16 @@
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5">
         <v>0.2</v>
@@ -1165,16 +1164,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5">
         <v>0.3</v>
@@ -1188,7 +1187,7 @@
     <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="5">
         <v>0.3</v>
@@ -1197,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
@@ -1250,7 +1249,7 @@
     <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5">
         <v>0.05</v>
@@ -1259,16 +1258,16 @@
         <v>6</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5">
         <v>0.05</v>
@@ -1277,16 +1276,16 @@
         <v>9</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5">
         <v>0.02</v>
@@ -1295,16 +1294,16 @@
         <v>8</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5">
         <v>0.03</v>
@@ -1313,16 +1312,16 @@
         <v>5</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5">
         <v>0.02</v>
@@ -1331,16 +1330,16 @@
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="5">
         <v>0.03</v>
@@ -1349,16 +1348,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="5">
         <v>0.4</v>
@@ -1367,10 +1366,10 @@
         <v>3</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
@@ -1383,7 +1382,7 @@
     </row>
     <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -1394,7 +1393,7 @@
     <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="5">
         <v>3</v>
@@ -1403,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
@@ -1419,7 +1418,7 @@
     </row>
     <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -1430,35 +1429,35 @@
     <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
       </c>
       <c r="E39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G40" s="3"/>
     </row>
@@ -1472,28 +1471,27 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{1099ED6A-2DDF-412D-B20B-2D866AFA56E7}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{52F87F3F-E785-44EB-8058-8D6D66EC1101}"/>
-    <hyperlink ref="F9" r:id="rId3" xr:uid="{6A122FCA-1989-4520-BEA8-27180D5CB44A}"/>
-    <hyperlink ref="F18" r:id="rId4" xr:uid="{D90B551E-81EE-44D8-ACFC-BD1CEEB889A8}"/>
-    <hyperlink ref="F26" r:id="rId5" xr:uid="{7E81BC59-DD61-4FC8-AA0B-CB7FF30F34C9}"/>
-    <hyperlink ref="F19" r:id="rId6" xr:uid="{5F384D5E-1A7A-403E-AFE9-D5900E6D87AD}"/>
-    <hyperlink ref="F20" r:id="rId7" xr:uid="{D758B095-6720-4A81-B8A8-86A22B5F53A9}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{136A5D5D-D10E-4012-AC84-976948BF1964}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{9E280E03-B684-4ACF-853D-99156BFCCB55}"/>
-    <hyperlink ref="F40" r:id="rId10" xr:uid="{CBBFB708-1522-4FE2-BF90-1B0487AFA748}"/>
-    <hyperlink ref="F39" r:id="rId11" xr:uid="{5197D038-340B-4930-9934-4EA1A7844EBB}"/>
-    <hyperlink ref="F12" r:id="rId12" xr:uid="{80E0E1EE-50C0-4AFE-81D7-5B0B63D8AC2D}"/>
-    <hyperlink ref="F27" r:id="rId13" xr:uid="{C0A63030-4571-4DC0-ACA3-BB5A65A5F194}"/>
-    <hyperlink ref="F14" r:id="rId14" xr:uid="{59B98ADF-7698-4F35-B439-4BA132362FE7}"/>
-    <hyperlink ref="F15" r:id="rId15" xr:uid="{3246782D-B9E2-40F2-90E4-1D4F0BE21EF7}"/>
-    <hyperlink ref="F28" r:id="rId16" xr:uid="{CFD4206B-35F3-41E8-B480-0079DCE3931A}"/>
-    <hyperlink ref="F29" r:id="rId17" xr:uid="{F02912DF-B62A-42C0-9A92-FA877B6BFEB4}"/>
-    <hyperlink ref="F30" r:id="rId18" xr:uid="{7D6713AA-5DB2-4CE8-A650-0F17A0E7DB2B}"/>
-    <hyperlink ref="F31" r:id="rId19" xr:uid="{730B5C75-39B1-4095-910A-AE97327B4F1F}"/>
-    <hyperlink ref="F32" r:id="rId20" xr:uid="{0A9B3ABE-0EA8-425F-8A27-7E63DC0CF37F}"/>
-    <hyperlink ref="F36" r:id="rId21" xr:uid="{B7A30856-0575-4A02-A579-F57DC463FB0B}"/>
-    <hyperlink ref="F22" r:id="rId22" xr:uid="{5BBD81D2-4211-4D31-A9F5-6705C091BBA3}"/>
-    <hyperlink ref="F33" r:id="rId23" xr:uid="{9CCDAFAA-0182-4358-8B51-BE4B3E14D784}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{6A122FCA-1989-4520-BEA8-27180D5CB44A}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{D90B551E-81EE-44D8-ACFC-BD1CEEB889A8}"/>
+    <hyperlink ref="F26" r:id="rId4" xr:uid="{7E81BC59-DD61-4FC8-AA0B-CB7FF30F34C9}"/>
+    <hyperlink ref="F20" r:id="rId5" xr:uid="{D758B095-6720-4A81-B8A8-86A22B5F53A9}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{136A5D5D-D10E-4012-AC84-976948BF1964}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{9E280E03-B684-4ACF-853D-99156BFCCB55}"/>
+    <hyperlink ref="F40" r:id="rId8" xr:uid="{CBBFB708-1522-4FE2-BF90-1B0487AFA748}"/>
+    <hyperlink ref="F39" r:id="rId9" xr:uid="{5197D038-340B-4930-9934-4EA1A7844EBB}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{80E0E1EE-50C0-4AFE-81D7-5B0B63D8AC2D}"/>
+    <hyperlink ref="F27" r:id="rId11" xr:uid="{C0A63030-4571-4DC0-ACA3-BB5A65A5F194}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{59B98ADF-7698-4F35-B439-4BA132362FE7}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{3246782D-B9E2-40F2-90E4-1D4F0BE21EF7}"/>
+    <hyperlink ref="F28" r:id="rId14" xr:uid="{CFD4206B-35F3-41E8-B480-0079DCE3931A}"/>
+    <hyperlink ref="F29" r:id="rId15" xr:uid="{F02912DF-B62A-42C0-9A92-FA877B6BFEB4}"/>
+    <hyperlink ref="F30" r:id="rId16" xr:uid="{7D6713AA-5DB2-4CE8-A650-0F17A0E7DB2B}"/>
+    <hyperlink ref="F31" r:id="rId17" xr:uid="{730B5C75-39B1-4095-910A-AE97327B4F1F}"/>
+    <hyperlink ref="F32" r:id="rId18" xr:uid="{0A9B3ABE-0EA8-425F-8A27-7E63DC0CF37F}"/>
+    <hyperlink ref="F36" r:id="rId19" xr:uid="{B7A30856-0575-4A02-A579-F57DC463FB0B}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{5BBD81D2-4211-4D31-A9F5-6705C091BBA3}"/>
+    <hyperlink ref="F33" r:id="rId21" xr:uid="{9CCDAFAA-0182-4358-8B51-BE4B3E14D784}"/>
+    <hyperlink ref="F8" r:id="rId22" xr:uid="{52F87F3F-E785-44EB-8058-8D6D66EC1101}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
